--- a/versions/v13/docs/enterprise-attack-v13.0/enterprise-attack-v13.0-mitigations.xlsx
+++ b/versions/v13/docs/enterprise-attack-v13.0/enterprise-attack-v13.0-mitigations.xlsx
@@ -642,103 +642,103 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft MS14-025),(Citation: STIG krbtgt reset),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Protected Users Security Group),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Replication ACL),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Trust Considerations Nov 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter)</t>
+    <t>(Citation: STIG krbtgt reset),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft MS14-025),(Citation: Microsoft Protected Users Security Group)</t>
+  </si>
+  <si>
+    <t>(Citation: SourceForge rkhunter),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Chkrootkit Main)</t>
   </si>
   <si>
     <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: FireEye ADFS),(Citation: Microsoft Get-InboxRule),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Kubernetes Hardening Guide),(Citation: Powersploit),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: MagicWeb),(Citation: GitHub Certify),(Citation: GitHub PSPKIAudit),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Github UACMe),(Citation: Microsoft CreateProcess),(Citation: Microsoft Sxstrace),(Citation: Mandiant Azure AD Backdoors),(Citation: SpecterOps Certified Pre Owned),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Amazon S3 Security, 2019),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Vulnerability and Exploit Detector),(Citation: Microsoft Preauthentication Jul 2012),(Citation: GitHub Bloodhound),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Cisco IOS Software Integrity Assurance - Change Control)</t>
-  </si>
-  <si>
-    <t>(Citation: Malicious Driver Reporting Center),(Citation: win10_asr),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft driver block rules),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: ESET LoJax Sept 2018),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TechNet Secure Boot Process)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry),(Citation: applescript signing),(Citation: Content trust in Docker)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Credential Guard April 2017),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: TechNet Credential Guard),(Citation: GitHub SHB Credential Guard)</t>
-  </si>
-  <si>
-    <t>(Citation: Ready.gov IT DRP),(Citation: Rhino S3 Ransomware Part 2),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft Disable Macros),(Citation: GitHub MOTW),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft BEC Campaign),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: SpecterOps Certified Pre Owned),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable DCOM),(Citation: TechNet Screensaver GP),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Gmail Delegation),(Citation: TechNet Removable Media Control),(Citation: ADSecurity Windows Secure Baseline),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable Autorun),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: GitHub Disable DDEAUTO Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: SpecterOps Certified Pre Owned),(Citation: Amazon S3 Security, 2019),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Metcalf 2015),(Citation: Microsoft Primary Refresh Token)</t>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub Certify),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: FireEye ADFS),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: GitHub Bloodhound),(Citation: SpecterOps Certified Pre Owned),(Citation: GitHub PSPKIAudit),(Citation: Amazon S3 Security, 2019),(Citation: Kubernetes Hardening Guide),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Vulnerability and Exploit Detector),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Sxstrace),(Citation: Github UACMe),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: MagicWeb),(Citation: Mandiant Azure AD Backdoors),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Microsoft CreateProcess),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Powersploit)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft driver block rules),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr)</t>
+  </si>
+  <si>
+    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: ESET LoJax Sept 2018),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TechNet Secure Boot Process)</t>
+  </si>
+  <si>
+    <t>(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Credential Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Enable Cred Guard April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP),(Citation: Rhino S3 Ransomware Part 2)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Disable DCOM),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Network access Credential Manager),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft BEC Campaign),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Gmail Delegation),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft Disable Macros),(Citation: ITSyndicate Disabling PHP functions),(Citation: TechNet Removable Media Control),(Citation: TechNet Screensaver GP),(Citation: Microsoft Disable Autorun),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: GitHub MOTW),(Citation: Microsoft Disable VBA Jan 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Primary Refresh Token)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Kubernetes Security Context),(Citation: Kernel.org Restrict Kernel Module),(Citation: Kubernetes Hardening Guide),(Citation: Windows Commands JPCERT),(Citation: Kernel Self Protection Project),(Citation: Microsoft Windows Defender Application Control),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Using Software Restriction ),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft PowerShell CLM),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Application Lockdown),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: SANS Application Whitelisting),(Citation: TechNet Applocker vs SRP),(Citation: Corio 2008),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: NSA MS AppLocker),(Citation: LKM loading kernel restrictions),(Citation: Default VBS macros Blocking ),(Citation: Beechey 2010),(Citation: Microsoft WDAC),(Citation: Increasing Linux kernel integrity),(Citation: Wikibooks Grsecurity)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Commands JPCERT),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: TechNet Moving Beyond EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: Wikipedia Control Flow Integrity),(Citation: Secure Host Baseline EMET)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT SMB Security),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: Microsoft SMB Packet Signing),(Citation: RedLock Instance Metadata API 2018),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT APT Energy Oct 2017),(Citation: Juniper DAI 2020),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: byt3bl33d3r NTLM Relaying)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: TechNet RDP Gateway)</t>
-  </si>
-  <si>
-    <t>(Citation: Evilginx 2 July 2018),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: Berkley Secure),(Citation: AWS - IAM Console Best Practices),(Citation: CISA MFA PrintNightmare),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft - Device Registration)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason Dissecting DGAs),(Citation: Anomali Template Injection MAR 2018),(Citation: dhcp_serv_op_events),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: Akamai DGA Mitigation),(Citation: US-CERT-TA18-106A)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft BITS),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: reagentc_cmd),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet Server Operator Scheduled Task),(Citation: TechNet RDP NLA),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Removable Media Control),(Citation: Microsoft WDigest Mit),(Citation: Windows RDP Sessions),(Citation: EnableMPRNotifications),(Citation: HowToGeek ShowExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Seqrite DoubleExtension),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Tilbury Windows Credentials)</t>
-  </si>
-  <si>
-    <t>(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Securing Privileged Access),(Citation: CyberArk Labs Safe Mode 2016),(Citation: AWS Setting Up Run Command),(Citation: Microsoft System Wide Com Keys),(Citation: FireEye ADFS),(Citation: Microsoft runas),(Citation: Kubernetes Hardening Guide),(Citation: Mandiant Azure Run Command 2021),(Citation: Kubernetes Admission Controllers),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft PS JEA),(Citation: MagicWeb),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: FireEye WMI 2015),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: TechNet Least Privilege),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: TechNet Scheduling Priority),(Citation: Kubernetes Service Accounts),(Citation: TechNet Credential Theft),(Citation: Microsoft COM ACL),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft Remote Use of Local),(Citation: Tilbury Windows Credentials)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA)</t>
+    <t>(Citation: SANS Application Whitelisting),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Technospot Chrome Extensions GP),(Citation: file_upload_attacks_pt2),(Citation: Kubernetes Hardening Guide),(Citation: NSA MS AppLocker),(Citation: Microsoft Windows Defender Application Control),(Citation: Windows Commands JPCERT),(Citation: Kernel.org Restrict Kernel Module),(Citation: Wikibooks Grsecurity),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft WDAC),(Citation: Kubernetes Security Context),(Citation: Kernel Self Protection Project),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft Using Software Restriction ),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Default VBS macros Blocking ),(Citation: LKM loading kernel restrictions),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft Application Lockdown),(Citation: Dormann Dangers of VHD 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Applocker vs SRP),(Citation: TechNet Moving Beyond EMET),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: NSA MS AppLocker),(Citation: Wikipedia Control Flow Integrity),(Citation: Windows Commands JPCERT),(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Microsoft Preventing SMB),(Citation: US-CERT SMB Security),(Citation: Microsoft SMB Packet Signing),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: ntlm_relaying_kerberos_del),(Citation: Juniper DAI 2020),(Citation: US-CERT APT Energy Oct 2017),(Citation: Secure Ideas SMB Relay),(Citation: CERT-EU DDoS March 2017),(Citation: RedLock Instance Metadata API 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect),(Citation: Microsoft AKS Azure AD 2023),(Citation: Kubernetes API Control Access),(Citation: Wikipedia 802.1x)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: Evilginx 2 July 2018),(Citation: CISA MFA PrintNightmare),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: Expel IO Evil in AWS),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft - Device Registration),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Cisco IOS Software Integrity Assurance - TACACS)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason Dissecting DGAs),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Anomali Template Injection MAR 2018),(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: US-CERT-TA18-106A)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: EnableMPRNotifications),(Citation: Microsoft WDigest Mit),(Citation: Apple Developer Doco Hardened Runtime),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Tilbury Windows Credentials),(Citation: Microsoft BITS),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: UCF STIG Elevation Account Enumeration),(Citation: reagentc_cmd),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: TechNet Removable Media Control),(Citation: Windows RDP Sessions),(Citation: TechNet RDP NLA),(Citation: HowToGeek ShowExtension),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Seqrite DoubleExtension),(Citation: TechNet Server Operator Scheduled Task)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: AWS - IAM Console Best Practices),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: store_pwd_rev_enc),(Citation: Microsoft Install Password Filter n.d),(Citation: NIST 800-63-3)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft PS JEA),(Citation: FireEye ADFS),(Citation: Tilbury Windows Credentials),(Citation: Kubernetes Admission Controllers),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft System Wide Com Keys),(Citation: Kubernetes Service Accounts),(Citation: Microsoft Remote Use of Local),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Replace Process Token),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Securing Privileged Access),(Citation: TechNet Scheduling Priority),(Citation: TechNet Least Privilege),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft COM ACL),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft Create Token),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: TechNet Credential Theft),(Citation: AWS Setting Up Run Command),(Citation: Microsoft runas),(Citation: FireEye WMI 2015),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Mandiant Azure Run Command 2021),(Citation: Cisco IOS Software Integrity Assurance - TACACS)</t>
+  </si>
+  <si>
+    <t>(Citation: Graeber 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: create_sym_links),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft ETW May 2018),(Citation: cisco_deploy_rsa_keys),(Citation: win_xml_evt_log),(Citation: piazza launch agent mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017)</t>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: create_sym_links),(Citation: piazza launch agent mitigation),(Citation: cisco_deploy_rsa_keys),(Citation: win_xml_evt_log),(Citation: Microsoft ETW May 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: Wikipedia HPKP),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: ACSC Email Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CloudSploit - Unused AWS Regions),(Citation: Cisco Securing SNMP),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: Microsoft Anti Spoofing)</t>
-  </si>
-  <si>
-    <t>(Citation: MS14-025),(Citation: SensePost Outlook Forms),(Citation: SensePost Outlook Home Page),(Citation: NSA Spotting),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Github UACMe),(Citation: Cisco Blog Legacy Device Attacks)</t>
+    <t>(Citation: CyberArk Labs Safe Mode 2016),(Citation: Palo Alto Office Test Sofacy),(Citation: Wikipedia HPKP),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Cisco Securing SNMP),(Citation: ACSC Email Spoofing),(Citation: Microsoft Anti Spoofing),(Citation: CloudSploit - Unused AWS Regions),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: Github UACMe)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: Expel IO Evil in AWS),(Citation: Microsoft WMI Filters),(Citation: Apple TN2459 Kernel Extensions),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Wald0 Guide to GPOs),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Microsoft ETW May 2018),(Citation: Microsoft Azure Storage Security, 2019),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft GPO Security Filtering),(Citation: Office 365 Partner Relationships),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Kubernetes RBAC),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant M-Trends 2020),(Citation: Symantec BITS May 2007),(Citation: MDMProfileConfigMacOS)</t>
+    <t>(Citation: Expel IO Evil in AWS),(Citation: Mandiant M-Trends 2020),(Citation: Symantec BITS May 2007),(Citation: Amazon S3 Security, 2019),(Citation: Wald0 Guide to GPOs),(Citation: Kubernetes Hardening Guide),(Citation: Apple TN2459 Kernel Extensions),(Citation: MDMProfileConfigMacOS),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft GPO Security Filtering),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: UCF STIG Symbolic Links),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Kubernetes RBAC),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft WMI Filters),(Citation: Office 365 Partner Relationships),(Citation: Microsoft ETW May 2018)</t>
   </si>
   <si>
     <t>(Citation: Re-Open windows on Mac)</t>
